--- a/data/return_calibrations.xlsx
+++ b/data/return_calibrations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>param</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>sig2</t>
+  </si>
+  <si>
+    <t>scale</t>
   </si>
   <si>
     <t>mu_0</t>
@@ -405,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01728168881152686</v>
+        <v>0.02029978005959111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9847080438560571</v>
+        <v>0.984278495637919</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +440,15 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>294.1371173444276</v>
+        <v>294.0355893091084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -447,7 +458,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,31 +471,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.06699564294003099</v>
+        <v>0.06762965639825302</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.9881554932803279</v>
+        <v>0.9872419463930214</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>314.4252024922093</v>
+        <v>314.1605173141185</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>-0.0343139507520378</v>
@@ -492,7 +503,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0.9896428554810129</v>
@@ -500,7 +511,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>279.731940338437</v>
@@ -508,10 +519,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/data/return_calibrations.xlsx
+++ b/data/return_calibrations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>param</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>sig2</t>
-  </si>
-  <si>
-    <t>scale</t>
   </si>
   <si>
     <t>mu_0</t>
@@ -408,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02029978005959111</v>
+        <v>0.0004617710895378863</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -432,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.984278495637919</v>
+        <v>-0.1698424145146721</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -440,15 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>294.0355893091084</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1000</v>
+        <v>0.0001293198216919027</v>
       </c>
     </row>
   </sheetData>
@@ -458,7 +447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -471,66 +460,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0.06762965639825302</v>
+        <v>-0.0007238660604304735</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0.9872419463930214</v>
+        <v>-0.4006314980700421</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>314.1605173141185</v>
+        <v>0.0001853509327395226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.0343139507520378</v>
+        <v>0.00053365311711548</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.9896428554810129</v>
+        <v>-0.1069940542879177</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>279.731940338437</v>
+        <v>8.843619120525415E-05</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/data/return_calibrations.xlsx
+++ b/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0004617710895378863</v>
+        <v>0.0004954779980738566</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.1698424145146721</v>
+        <v>-0.0009015378188562673</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0001293198216919027</v>
+        <v>0.0001299103179096192</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0007238660604304735</v>
+        <v>-0.0003688182114076711</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.4006314980700421</v>
+        <v>-0.002796682407822521</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0001853509327395226</v>
+        <v>0.0001869531197300377</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.00053365311711548</v>
+        <v>0.0004345906523447599</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.1069940542879177</v>
+        <v>-0.0005255424046677973</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>8.843619120525415E-05</v>
+        <v>8.863470674000043E-05</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/return_calibrations.xlsx
+++ b/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0004954779980738566</v>
+        <v>0.0009410729182504518</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.0009015378188562673</v>
+        <v>-0.0017735271910109</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0001299103179096192</v>
+        <v>0.0008781329072969674</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0003688182114076711</v>
+        <v>-6.478486381511321E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.002796682407822521</v>
+        <v>-0.003824069019419784</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0001869531197300377</v>
+        <v>0.001203553614518375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0004345906523447599</v>
+        <v>0.0003211804297601154</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.0005255424046677973</v>
+        <v>-0.0002587678468197771</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>8.863470674000043E-05</v>
+        <v>0.0006063312078873049</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/return_calibrations.xlsx
+++ b/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0009410729182504518</v>
+        <v>0.000941072858127685</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.0017735271910109</v>
+        <v>-0.00177352535061142</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0008781329072969674</v>
+        <v>0.0008781327553227879</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-6.478486381511321E-06</v>
+        <v>-6.463845053685348E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.003824069019419784</v>
+        <v>-0.003824036556264234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.001203553614518375</v>
+        <v>0.001203553105061374</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0003211804297601154</v>
+        <v>0.0003211841401173801</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.0002587678468197771</v>
+        <v>-0.0002587786486836462</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.0006063312078873049</v>
+        <v>0.0006063313749700728</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/return_calibrations.xlsx
+++ b/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.000941072858127685</v>
+        <v>0.0009410726514809564</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.00177352535061142</v>
+        <v>-0.001773529260955098</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0008781327553227879</v>
+        <v>0.0008781331061836215</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-6.463845053685348E-06</v>
+        <v>-6.462150403900265E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.003824036556264234</v>
+        <v>-0.003824036013676369</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.001203553105061374</v>
+        <v>0.001203553707635015</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0003211841401173801</v>
+        <v>0.0003211899681131142</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.0002587786486836462</v>
+        <v>-0.0002587939907122997</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.0006063313749700728</v>
+        <v>0.0006063315295966881</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/return_calibrations.xlsx
+++ b/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0009410726514809564</v>
+        <v>0.0004940052325916604</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.001773529260955098</v>
+        <v>-0.0009013093256141997</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0008781331061836215</v>
+        <v>0.0001299982577683521</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-6.462150403900265E-06</v>
+        <v>-0.0003622730541743514</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.003824036013676369</v>
+        <v>-0.002787471322555543</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.001203553707635015</v>
+        <v>0.0001871332502136662</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0003211899681131142</v>
+        <v>0.0004237048679413068</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.0002587939907122997</v>
+        <v>-0.0005119960757494766</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.0006063315295966881</v>
+        <v>8.865941447894355E-05</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/return_calibrations.xlsx
+++ b/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0004940052325916604</v>
+        <v>0.6809420213817078</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.0009013093256141997</v>
+        <v>-1.214400224646222</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0001299982577683521</v>
+        <v>341.4870466118646</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0003622730541743514</v>
+        <v>-0.1616934774380819</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.002787471322555543</v>
+        <v>-3.241276864045544</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0001871332502136662</v>
+        <v>499.0927587290089</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0004237048679413068</v>
+        <v>0.4081887022615996</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.0005119960757494766</v>
+        <v>-0.4889284007067288</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>8.865941447894355E-05</v>
+        <v>226.073243404304</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/return_calibrations.xlsx
+++ b/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.6809420213817078</v>
+        <v>0.6869564407548443</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.214400224646222</v>
+        <v>-1.216704673061194</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>341.4870466118646</v>
+        <v>342.0670551671182</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1616934774380819</v>
+        <v>-0.1611150080683665</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-3.241276864045544</v>
+        <v>-3.240443830622895</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>499.0927587290089</v>
+        <v>499.3887462084699</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.4081887022615996</v>
+        <v>0.4311830877526545</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.4889284007067288</v>
+        <v>-0.5191012567851773</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>226.073243404304</v>
+        <v>226.9848487197836</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/return_calibrations.xlsx
+++ b/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.6869564407548443</v>
+        <v>0.004105376846097051</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.216704673061194</v>
+        <v>-0.07898817841423227</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>342.0670551671182</v>
+        <v>1.353521011482407</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1611150080683665</v>
+        <v>0.02052115074596907</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-3.240443830622895</v>
+        <v>0.01509938526654823</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>499.3887462084699</v>
+        <v>1.379653801527025</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.4311830877526545</v>
+        <v>0.08066323695490685</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.5191012567851773</v>
+        <v>-0.276795127221192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>226.9848487197836</v>
+        <v>1.324415593620945</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/return_calibrations.xlsx
+++ b/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.004105376846097051</v>
+        <v>0.0004960397835083949</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.07898817841423227</v>
+        <v>-0.0009014063808308189</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.353521011482407</v>
+        <v>0.0001300131496716622</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.02052115074596907</v>
+        <v>-0.000360697997278011</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.01509938526654823</v>
+        <v>-0.002785181442717173</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.379653801527025</v>
+        <v>0.0001872444020427046</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.08066323695490685</v>
+        <v>0.0004290044777867725</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.276795127221192</v>
+        <v>-0.0005183459638454682</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.324415593620945</v>
+        <v>8.864882731001277E-05</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/return_calibrations.xlsx
+++ b/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0004960397835083949</v>
+        <v>0.004105376846097051</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.0009014063808308189</v>
+        <v>-0.07898817841423227</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0001300131496716622</v>
+        <v>1.353521011482407</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.000360697997278011</v>
+        <v>0.02052115074596907</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.002785181442717173</v>
+        <v>0.01509938526654823</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0001872444020427046</v>
+        <v>1.379653801527025</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0004290044777867725</v>
+        <v>0.08066323695490685</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.0005183459638454682</v>
+        <v>-0.276795127221192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>8.864882731001277E-05</v>
+        <v>1.324415593620945</v>
       </c>
     </row>
     <row r="8" spans="1:2">
